--- a/Manual Classification.xlsx
+++ b/Manual Classification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10708620_polimi_it/Documents/1o anno magistrale/2o semestre/Mutlidisciplinary project/Bottega52/drive-download-20240408T142109Z-001/02 - Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrom/PycharmProjects/Botteg52/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{089D9855-FD29-3F4D-A2D9-DD5E4E35BA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{305F4569-442E-8E41-8875-C1E3383C5E28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF0105-0286-4446-B3FF-1061B4BE6BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -632,18 +632,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -683,16 +677,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
